--- a/build-LibrarySystem-Desktop_Qt_5_4_2_MinGW_32bit-Debug/BookList_OG.xlsx
+++ b/build-LibrarySystem-Desktop_Qt_5_4_2_MinGW_32bit-Debug/BookList_OG.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Software Analysis Design (SAD)\Library System\LibrarySystem\LibrarySystem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Software Analysis Design (SAD)\Library System\LibrarySystem\build-LibrarySystem-Desktop_Qt_5_4_2_MinGW_32bit-Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="686">
   <si>
     <t>Title</t>
   </si>
@@ -2079,13 +2079,16 @@
   </si>
   <si>
     <t>Total Available</t>
+  </si>
+  <si>
+    <t>Num Weeks</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2104,6 +2107,11 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2144,10 +2152,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2156,9 +2165,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2436,10 +2447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E235"/>
+  <dimension ref="A1:F235"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="43.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2450,7 +2461,7 @@
     <col min="4" max="4" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2466,8 +2477,11 @@
       <c r="E1" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F1" s="4" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -2484,8 +2498,11 @@
         <f>SUM(D2-1)</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F2" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -2502,8 +2519,11 @@
         <f t="shared" ref="E3:E66" si="0">SUM(D3-1)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F3" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -2520,8 +2540,11 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -2538,8 +2561,11 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F5" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -2556,8 +2582,11 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -2574,8 +2603,11 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -2592,8 +2624,11 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F8" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>674</v>
       </c>
@@ -2610,8 +2645,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F9" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>675</v>
       </c>
@@ -2628,8 +2666,11 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
@@ -2646,8 +2687,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F11" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
@@ -2664,8 +2708,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F12" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>21</v>
       </c>
@@ -2682,8 +2729,11 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>23</v>
       </c>
@@ -2700,8 +2750,11 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F14" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>25</v>
       </c>
@@ -2718,8 +2771,11 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F15" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>27</v>
       </c>
@@ -2736,8 +2792,11 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F16" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>29</v>
       </c>
@@ -2754,8 +2813,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F17" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>30</v>
       </c>
@@ -2772,8 +2834,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F18" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>32</v>
       </c>
@@ -2790,8 +2855,11 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F19" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>34</v>
       </c>
@@ -2808,8 +2876,11 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F20" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>35</v>
       </c>
@@ -2826,8 +2897,11 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F21" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>37</v>
       </c>
@@ -2844,8 +2918,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F22" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>39</v>
       </c>
@@ -2862,8 +2939,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F23" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>41</v>
       </c>
@@ -2880,8 +2960,11 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F24" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>43</v>
       </c>
@@ -2898,8 +2981,11 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F25" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>45</v>
       </c>
@@ -2916,8 +3002,11 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F26" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>47</v>
       </c>
@@ -2934,8 +3023,11 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F27" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>49</v>
       </c>
@@ -2952,8 +3044,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F28" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>51</v>
       </c>
@@ -2970,8 +3065,11 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F29" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>53</v>
       </c>
@@ -2988,8 +3086,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F30" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>55</v>
       </c>
@@ -3006,8 +3107,11 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F31" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>57</v>
       </c>
@@ -3024,8 +3128,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F32" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>59</v>
       </c>
@@ -3042,8 +3149,11 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F33" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>676</v>
       </c>
@@ -3060,8 +3170,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F34" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>62</v>
       </c>
@@ -3078,8 +3191,11 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F35" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>64</v>
       </c>
@@ -3096,8 +3212,11 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F36" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>66</v>
       </c>
@@ -3114,8 +3233,11 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F37" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>68</v>
       </c>
@@ -3132,8 +3254,11 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F38" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>70</v>
       </c>
@@ -3150,8 +3275,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F39" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>72</v>
       </c>
@@ -3168,8 +3296,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F40" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>74</v>
       </c>
@@ -3186,8 +3317,11 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F41" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>76</v>
       </c>
@@ -3204,8 +3338,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F42" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>78</v>
       </c>
@@ -3222,8 +3359,11 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F43" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>80</v>
       </c>
@@ -3240,8 +3380,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F44" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>82</v>
       </c>
@@ -3258,8 +3401,11 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F45" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>83</v>
       </c>
@@ -3276,8 +3422,11 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F46" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>84</v>
       </c>
@@ -3294,8 +3443,11 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F47" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>85</v>
       </c>
@@ -3312,8 +3464,11 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F48" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>87</v>
       </c>
@@ -3330,8 +3485,11 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F49" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>89</v>
       </c>
@@ -3348,8 +3506,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F50" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>91</v>
       </c>
@@ -3366,8 +3527,11 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F51" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>93</v>
       </c>
@@ -3384,8 +3548,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F52" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>95</v>
       </c>
@@ -3402,8 +3569,11 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F53" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>97</v>
       </c>
@@ -3420,8 +3590,11 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F54" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>99</v>
       </c>
@@ -3438,8 +3611,11 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F55" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>101</v>
       </c>
@@ -3456,8 +3632,11 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F56" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>103</v>
       </c>
@@ -3474,8 +3653,11 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F57" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>105</v>
       </c>
@@ -3492,8 +3674,11 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F58" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>107</v>
       </c>
@@ -3510,8 +3695,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F59" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>109</v>
       </c>
@@ -3528,8 +3716,11 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F60" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>110</v>
       </c>
@@ -3546,8 +3737,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F61" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>112</v>
       </c>
@@ -3564,8 +3758,11 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F62" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>114</v>
       </c>
@@ -3582,8 +3779,11 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F63" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>116</v>
       </c>
@@ -3600,8 +3800,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F64" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>118</v>
       </c>
@@ -3618,8 +3821,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F65" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>120</v>
       </c>
@@ -3636,8 +3842,11 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F66" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>122</v>
       </c>
@@ -3654,8 +3863,11 @@
         <f t="shared" ref="E67:E130" si="1">SUM(D67-1)</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F67" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>124</v>
       </c>
@@ -3672,8 +3884,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F68" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>125</v>
       </c>
@@ -3690,8 +3905,11 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F69" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>126</v>
       </c>
@@ -3708,8 +3926,11 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F70" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>128</v>
       </c>
@@ -3726,8 +3947,11 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F71" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>130</v>
       </c>
@@ -3744,8 +3968,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F72" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>132</v>
       </c>
@@ -3762,8 +3989,11 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F73" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>134</v>
       </c>
@@ -3780,8 +4010,11 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F74" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>136</v>
       </c>
@@ -3798,8 +4031,11 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F75" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>138</v>
       </c>
@@ -3816,8 +4052,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F76" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>140</v>
       </c>
@@ -3834,8 +4073,11 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F77" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>142</v>
       </c>
@@ -3852,8 +4094,11 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F78" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>144</v>
       </c>
@@ -3870,8 +4115,11 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F79" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>146</v>
       </c>
@@ -3888,8 +4136,11 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F80" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>148</v>
       </c>
@@ -3906,8 +4157,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F81" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>150</v>
       </c>
@@ -3924,8 +4178,11 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F82" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>152</v>
       </c>
@@ -3942,8 +4199,11 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F83" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>677</v>
       </c>
@@ -3960,8 +4220,11 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F84" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>678</v>
       </c>
@@ -3978,8 +4241,11 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F85" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>156</v>
       </c>
@@ -3996,8 +4262,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F86" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>679</v>
       </c>
@@ -4014,8 +4283,11 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F87" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>159</v>
       </c>
@@ -4032,8 +4304,11 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F88" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>161</v>
       </c>
@@ -4050,8 +4325,11 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F89" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>163</v>
       </c>
@@ -4068,8 +4346,11 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F90" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>165</v>
       </c>
@@ -4086,8 +4367,11 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F91" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>167</v>
       </c>
@@ -4104,8 +4388,11 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F92" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>169</v>
       </c>
@@ -4122,8 +4409,11 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F93" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>171</v>
       </c>
@@ -4140,8 +4430,11 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F94" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>173</v>
       </c>
@@ -4158,8 +4451,11 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F95" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>175</v>
       </c>
@@ -4176,8 +4472,11 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F96" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>177</v>
       </c>
@@ -4194,8 +4493,11 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F97" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>178</v>
       </c>
@@ -4212,8 +4514,11 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F98" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>180</v>
       </c>
@@ -4230,8 +4535,11 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F99" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>182</v>
       </c>
@@ -4248,8 +4556,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F100" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>184</v>
       </c>
@@ -4266,8 +4577,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F101" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>186</v>
       </c>
@@ -4284,8 +4598,11 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F102" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>188</v>
       </c>
@@ -4302,8 +4619,11 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F103" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>190</v>
       </c>
@@ -4320,8 +4640,11 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F104" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>192</v>
       </c>
@@ -4338,8 +4661,11 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F105" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>194</v>
       </c>
@@ -4356,8 +4682,11 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F106" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>196</v>
       </c>
@@ -4374,8 +4703,11 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F107" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>198</v>
       </c>
@@ -4392,8 +4724,11 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F108" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>200</v>
       </c>
@@ -4410,8 +4745,11 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F109" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>202</v>
       </c>
@@ -4428,8 +4766,11 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F110" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>204</v>
       </c>
@@ -4446,8 +4787,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F111" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>680</v>
       </c>
@@ -4464,8 +4808,11 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F112" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>206</v>
       </c>
@@ -4482,8 +4829,11 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F113" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>208</v>
       </c>
@@ -4500,8 +4850,11 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F114" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>210</v>
       </c>
@@ -4518,8 +4871,11 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F115" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>212</v>
       </c>
@@ -4536,8 +4892,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F116" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>213</v>
       </c>
@@ -4554,8 +4913,11 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F117" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>215</v>
       </c>
@@ -4572,8 +4934,11 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F118" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>217</v>
       </c>
@@ -4590,8 +4955,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F119" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>219</v>
       </c>
@@ -4608,8 +4976,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F120" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>221</v>
       </c>
@@ -4626,8 +4997,11 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F121" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>223</v>
       </c>
@@ -4644,8 +5018,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F122" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>225</v>
       </c>
@@ -4662,8 +5039,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F123" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>226</v>
       </c>
@@ -4680,8 +5060,11 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F124" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>228</v>
       </c>
@@ -4698,8 +5081,11 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F125" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>230</v>
       </c>
@@ -4716,8 +5102,11 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F126" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>232</v>
       </c>
@@ -4734,8 +5123,11 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F127" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>234</v>
       </c>
@@ -4752,8 +5144,11 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F128" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>236</v>
       </c>
@@ -4770,8 +5165,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F129" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>238</v>
       </c>
@@ -4788,8 +5186,11 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F130" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>240</v>
       </c>
@@ -4806,8 +5207,11 @@
         <f t="shared" ref="E131:E194" si="2">SUM(D131-1)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F131" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>242</v>
       </c>
@@ -4824,8 +5228,11 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F132" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>243</v>
       </c>
@@ -4842,8 +5249,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F133" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>245</v>
       </c>
@@ -4860,8 +5270,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F134" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>247</v>
       </c>
@@ -4878,8 +5291,11 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F135" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>249</v>
       </c>
@@ -4896,8 +5312,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F136" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
         <v>251</v>
       </c>
@@ -4914,8 +5333,11 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F137" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
         <v>253</v>
       </c>
@@ -4932,8 +5354,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F138" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
         <v>255</v>
       </c>
@@ -4950,8 +5375,11 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F139" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>257</v>
       </c>
@@ -4968,8 +5396,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F140" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>259</v>
       </c>
@@ -4986,8 +5417,11 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F141" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
         <v>261</v>
       </c>
@@ -5004,8 +5438,11 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F142" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>263</v>
       </c>
@@ -5022,8 +5459,11 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F143" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
         <v>265</v>
       </c>
@@ -5040,8 +5480,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F144" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
         <v>267</v>
       </c>
@@ -5058,8 +5501,11 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F145" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
         <v>269</v>
       </c>
@@ -5076,8 +5522,11 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F146" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
         <v>271</v>
       </c>
@@ -5094,8 +5543,11 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F147" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
         <v>273</v>
       </c>
@@ -5112,8 +5564,11 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F148" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>275</v>
       </c>
@@ -5130,8 +5585,11 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F149" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
         <v>277</v>
       </c>
@@ -5148,8 +5606,11 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F150" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
         <v>279</v>
       </c>
@@ -5166,8 +5627,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F151" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
         <v>281</v>
       </c>
@@ -5184,8 +5648,11 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F152" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
         <v>283</v>
       </c>
@@ -5202,8 +5669,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F153" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
         <v>285</v>
       </c>
@@ -5220,8 +5690,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F154" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
         <v>287</v>
       </c>
@@ -5238,8 +5711,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F155" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
         <v>288</v>
       </c>
@@ -5256,8 +5732,11 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F156" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
         <v>290</v>
       </c>
@@ -5274,8 +5753,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F157" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
         <v>292</v>
       </c>
@@ -5292,8 +5774,11 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F158" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
         <v>294</v>
       </c>
@@ -5310,8 +5795,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F159" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
         <v>296</v>
       </c>
@@ -5328,8 +5816,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F160" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
         <v>298</v>
       </c>
@@ -5346,8 +5837,11 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F161" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
         <v>300</v>
       </c>
@@ -5364,8 +5858,11 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F162" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
         <v>302</v>
       </c>
@@ -5382,8 +5879,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F163" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
         <v>304</v>
       </c>
@@ -5400,8 +5900,11 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F164" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
         <v>306</v>
       </c>
@@ -5418,8 +5921,11 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F165" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
         <v>308</v>
       </c>
@@ -5436,8 +5942,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F166" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
         <v>310</v>
       </c>
@@ -5454,8 +5963,11 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F167" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
         <v>312</v>
       </c>
@@ -5472,8 +5984,11 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F168" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
         <v>314</v>
       </c>
@@ -5490,8 +6005,11 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F169" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
         <v>316</v>
       </c>
@@ -5508,8 +6026,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F170" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
         <v>317</v>
       </c>
@@ -5526,8 +6047,11 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F171" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
         <v>319</v>
       </c>
@@ -5544,8 +6068,11 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F172" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
         <v>321</v>
       </c>
@@ -5562,8 +6089,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F173" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
         <v>323</v>
       </c>
@@ -5580,8 +6110,11 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F174" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
         <v>325</v>
       </c>
@@ -5598,8 +6131,11 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F175" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
         <v>327</v>
       </c>
@@ -5616,8 +6152,11 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F176" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
         <v>328</v>
       </c>
@@ -5634,8 +6173,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F177" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
         <v>330</v>
       </c>
@@ -5652,8 +6194,11 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="179" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F178" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
         <v>332</v>
       </c>
@@ -5670,8 +6215,11 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="180" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F179" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
         <v>334</v>
       </c>
@@ -5688,8 +6236,11 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="181" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F180" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
         <v>336</v>
       </c>
@@ -5706,8 +6257,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F181" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
         <v>338</v>
       </c>
@@ -5724,8 +6278,11 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="183" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F182" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
         <v>340</v>
       </c>
@@ -5742,8 +6299,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="184" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F183" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
         <v>341</v>
       </c>
@@ -5760,8 +6320,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F184" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
         <v>343</v>
       </c>
@@ -5778,8 +6341,11 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="186" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F185" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
         <v>345</v>
       </c>
@@ -5796,8 +6362,11 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="187" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F186" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
         <v>347</v>
       </c>
@@ -5814,8 +6383,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="188" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F187" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
         <v>349</v>
       </c>
@@ -5832,8 +6404,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F188" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
         <v>351</v>
       </c>
@@ -5850,8 +6425,11 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="190" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F189" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
         <v>351</v>
       </c>
@@ -5868,8 +6446,11 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="191" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F190" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
         <v>354</v>
       </c>
@@ -5886,8 +6467,11 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="192" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F191" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
         <v>356</v>
       </c>
@@ -5904,8 +6488,11 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="193" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F192" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
         <v>358</v>
       </c>
@@ -5922,8 +6509,11 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="194" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F193" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
         <v>360</v>
       </c>
@@ -5940,8 +6530,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="195" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F194" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
         <v>362</v>
       </c>
@@ -5958,8 +6551,11 @@
         <f t="shared" ref="E195:E235" si="3">SUM(D195-1)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="196" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F195" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
         <v>364</v>
       </c>
@@ -5976,8 +6572,11 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="197" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F196" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
         <v>366</v>
       </c>
@@ -5994,8 +6593,11 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="198" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F197" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
         <v>368</v>
       </c>
@@ -6012,8 +6614,11 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="199" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F198" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
         <v>370</v>
       </c>
@@ -6030,8 +6635,11 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="200" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F199" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
         <v>372</v>
       </c>
@@ -6048,8 +6656,11 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="201" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F200" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
         <v>373</v>
       </c>
@@ -6066,8 +6677,11 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="202" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F201" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
         <v>375</v>
       </c>
@@ -6084,8 +6698,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F202" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
         <v>377</v>
       </c>
@@ -6102,8 +6719,11 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="204" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F203" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
         <v>379</v>
       </c>
@@ -6120,8 +6740,11 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="205" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F204" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
         <v>380</v>
       </c>
@@ -6138,8 +6761,11 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="206" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F205" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
         <v>382</v>
       </c>
@@ -6156,8 +6782,11 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="207" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F206" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A207" s="2" t="s">
         <v>384</v>
       </c>
@@ -6174,8 +6803,11 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="208" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F207" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
         <v>386</v>
       </c>
@@ -6192,8 +6824,11 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="209" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F208" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
         <v>388</v>
       </c>
@@ -6210,8 +6845,11 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="210" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F209" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
         <v>390</v>
       </c>
@@ -6228,8 +6866,11 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="211" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F210" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
         <v>392</v>
       </c>
@@ -6246,8 +6887,11 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="212" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F211" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
         <v>394</v>
       </c>
@@ -6264,8 +6908,11 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="213" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F212" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
         <v>396</v>
       </c>
@@ -6282,8 +6929,11 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="214" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F213" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
         <v>398</v>
       </c>
@@ -6300,8 +6950,11 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="215" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F214" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
         <v>400</v>
       </c>
@@ -6318,8 +6971,11 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="216" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F215" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
         <v>402</v>
       </c>
@@ -6336,8 +6992,11 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="217" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F216" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
         <v>403</v>
       </c>
@@ -6354,8 +7013,11 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="218" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F217" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
         <v>405</v>
       </c>
@@ -6372,8 +7034,11 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="219" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F218" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
         <v>407</v>
       </c>
@@ -6390,8 +7055,11 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="220" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F219" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
         <v>409</v>
       </c>
@@ -6408,8 +7076,11 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="221" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F220" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
         <v>411</v>
       </c>
@@ -6426,8 +7097,11 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="222" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F221" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
         <v>412</v>
       </c>
@@ -6444,8 +7118,11 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="223" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F222" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
         <v>414</v>
       </c>
@@ -6462,8 +7139,11 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="224" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F223" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A224" s="2" t="s">
         <v>416</v>
       </c>
@@ -6480,8 +7160,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="225" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F224" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A225" s="2" t="s">
         <v>417</v>
       </c>
@@ -6498,8 +7181,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="226" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F225" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
         <v>419</v>
       </c>
@@ -6516,8 +7202,11 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="227" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F226" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
         <v>421</v>
       </c>
@@ -6534,8 +7223,11 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="228" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F227" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A228" s="2" t="s">
         <v>423</v>
       </c>
@@ -6552,8 +7244,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="229" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F228" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
         <v>425</v>
       </c>
@@ -6570,8 +7265,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="230" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F229" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
         <v>427</v>
       </c>
@@ -6588,8 +7286,11 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="231" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F230" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A231" s="2" t="s">
         <v>429</v>
       </c>
@@ -6606,8 +7307,11 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="232" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F231" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
         <v>431</v>
       </c>
@@ -6624,8 +7328,11 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="233" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F232" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A233" s="2" t="s">
         <v>433</v>
       </c>
@@ -6642,8 +7349,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="234" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F233" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A234" s="2" t="s">
         <v>435</v>
       </c>
@@ -6660,8 +7370,11 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="235" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F234" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A235" s="2" t="s">
         <v>437</v>
       </c>
@@ -6677,6 +7390,9 @@
       <c r="E235" s="1">
         <f t="shared" si="3"/>
         <v>1</v>
+      </c>
+      <c r="F235" s="4">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
